--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc201_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc201_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -483,10 +507,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -530,28 +554,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="3">
+      <c r="A14" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="3">
+      <c r="B14" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="3">
+      <c r="C14" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="3">
+      <c r="D14" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="3">
+      <c r="E14" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="3">
+      <c r="F14" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="3">
+      <c r="G14" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="3">
+      <c r="H14" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -576,28 +600,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="3">
+      <c r="B16" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="3">
+      <c r="C16" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="3">
+      <c r="D16" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="3">
+      <c r="E16" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="3">
+      <c r="F16" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="3">
+      <c r="G16" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="3">
+      <c r="H16" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="3">
+      <c r="I16" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -975,10 +999,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1022,28 +1046,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="3">
+      <c r="A31" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="3">
+      <c r="B31" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="3">
+      <c r="C31" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D31" t="s" s="3">
+      <c r="D31" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="3">
+      <c r="E31" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="3">
+      <c r="F31" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="3">
+      <c r="G31" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="3">
+      <c r="H31" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1068,28 +1092,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="3">
+      <c r="B33" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="3">
+      <c r="C33" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="3">
+      <c r="D33" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="3">
+      <c r="E33" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="3">
+      <c r="F33" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="3">
+      <c r="G33" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="3">
+      <c r="H33" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="3">
+      <c r="I33" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1467,10 +1491,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="K46" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1514,28 +1538,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="3">
+      <c r="A48" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="3">
+      <c r="B48" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="3">
+      <c r="C48" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D48" t="s" s="3">
+      <c r="D48" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="3">
+      <c r="E48" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="3">
+      <c r="F48" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="3">
+      <c r="G48" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="3">
+      <c r="H48" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1560,28 +1584,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="3">
+      <c r="B50" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="3">
+      <c r="C50" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="3">
+      <c r="D50" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="3">
+      <c r="E50" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="3">
+      <c r="F50" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="3">
+      <c r="G50" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="3">
+      <c r="H50" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="3">
+      <c r="I50" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2017,10 +2041,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="J65" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K65" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2064,28 +2088,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="3">
+      <c r="A67" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="3">
+      <c r="B67" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="3">
+      <c r="C67" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D67" t="s" s="3">
+      <c r="D67" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="3">
+      <c r="E67" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="3">
+      <c r="F67" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="3">
+      <c r="G67" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="3">
+      <c r="H67" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2110,28 +2134,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="3">
+      <c r="B69" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="3">
+      <c r="C69" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="3">
+      <c r="D69" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="3">
+      <c r="E69" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="3">
+      <c r="F69" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="3">
+      <c r="G69" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="3">
+      <c r="H69" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="3">
+      <c r="I69" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2567,10 +2591,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="J84" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K84" s="3" t="s">
+      <c r="K84" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2614,28 +2638,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="3">
+      <c r="A86" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="3">
+      <c r="B86" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="3">
+      <c r="C86" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D86" t="s" s="3">
+      <c r="D86" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="3">
+      <c r="E86" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="3">
+      <c r="F86" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="3">
+      <c r="G86" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="3">
+      <c r="H86" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2660,28 +2684,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="3">
+      <c r="B88" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="3">
+      <c r="C88" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="3">
+      <c r="D88" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="3">
+      <c r="E88" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="3">
+      <c r="F88" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="3">
+      <c r="G88" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="3">
+      <c r="H88" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="3">
+      <c r="I88" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3088,10 +3112,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="3" t="s">
+      <c r="J102" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="K102" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3135,28 +3159,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="3">
+      <c r="A104" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="3">
+      <c r="B104" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="3">
+      <c r="C104" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D104" t="s" s="3">
+      <c r="D104" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="3">
+      <c r="E104" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="3">
+      <c r="F104" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="3">
+      <c r="G104" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="3">
+      <c r="H104" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3181,28 +3205,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="3">
+      <c r="B106" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="3">
+      <c r="C106" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="3">
+      <c r="D106" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="3">
+      <c r="E106" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="3">
+      <c r="F106" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="3">
+      <c r="G106" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="3">
+      <c r="H106" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="3">
+      <c r="I106" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3580,10 +3604,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="3" t="s">
+      <c r="J119" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K119" s="3" t="s">
+      <c r="K119" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3627,28 +3651,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="3">
+      <c r="A121" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="3">
+      <c r="B121" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="3">
+      <c r="C121" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D121" t="s" s="3">
+      <c r="D121" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="3">
+      <c r="E121" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="3">
+      <c r="F121" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="3">
+      <c r="G121" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="3">
+      <c r="H121" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3673,28 +3697,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="3">
+      <c r="B123" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="3">
+      <c r="C123" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="3">
+      <c r="D123" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="3">
+      <c r="E123" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="3">
+      <c r="F123" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="3">
+      <c r="G123" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="3">
+      <c r="H123" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="3">
+      <c r="I123" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3985,10 +4009,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="3" t="s">
+      <c r="J133" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="3" t="s">
+      <c r="K133" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4032,28 +4056,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="3">
+      <c r="A135" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="3">
+      <c r="B135" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="3">
+      <c r="C135" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="3">
+      <c r="D135" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="3">
+      <c r="E135" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="3">
+      <c r="F135" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="3">
+      <c r="G135" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="3">
+      <c r="H135" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4078,28 +4102,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="3">
+      <c r="B137" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="3">
+      <c r="C137" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="3">
+      <c r="D137" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="3">
+      <c r="E137" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="3">
+      <c r="F137" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="3">
+      <c r="G137" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="3">
+      <c r="H137" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="3">
+      <c r="I137" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4332,10 +4356,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="3" t="s">
+      <c r="J145" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K145" s="3" t="s">
+      <c r="K145" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4379,28 +4403,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="3">
+      <c r="A147" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="3">
+      <c r="B147" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="3">
+      <c r="C147" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D147" t="s" s="3">
+      <c r="D147" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="3">
+      <c r="E147" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="3">
+      <c r="F147" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="3">
+      <c r="G147" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="3">
+      <c r="H147" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4425,28 +4449,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="3">
+      <c r="B149" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="3">
+      <c r="C149" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="3">
+      <c r="D149" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="3">
+      <c r="E149" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="3">
+      <c r="F149" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="3">
+      <c r="G149" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="3">
+      <c r="H149" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="3">
+      <c r="I149" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4505,10 +4529,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="3" t="s">
+      <c r="J151" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="3" t="s">
+      <c r="K151" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
